--- a/Python/Python for Data Science and Machine Learning Bootcamp/Course work/Section 25 Neural Nets and Deep Learning/model analysis.xlsx
+++ b/Python/Python for Data Science and Machine Learning Bootcamp/Course work/Section 25 Neural Nets and Deep Learning/model analysis.xlsx
@@ -34,19 +34,19 @@
     <t>Explained Variance Score</t>
   </si>
   <si>
-    <t>24120330683.964951</t>
-  </si>
-  <si>
-    <t>155307.213883</t>
-  </si>
-  <si>
-    <t>96490.390989</t>
-  </si>
-  <si>
-    <t>17.86</t>
-  </si>
-  <si>
-    <t>0.818285</t>
+    <t>24568626818.272507</t>
+  </si>
+  <si>
+    <t>156743.825455</t>
+  </si>
+  <si>
+    <t>99297.668814</t>
+  </si>
+  <si>
+    <t>18.38</t>
+  </si>
+  <si>
+    <t>0.817625</t>
   </si>
 </sst>
 </file>
